--- a/documents/Plan/DetailPlan_2102012.xlsx
+++ b/documents/Plan/DetailPlan_2102012.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="284">
   <si>
     <t>Task Name</t>
   </si>
@@ -816,9 +815,6 @@
     <t>5. System test</t>
   </si>
   <si>
-    <t xml:space="preserve">     5.1 Create </t>
-  </si>
-  <si>
     <t xml:space="preserve">     4.6 Summit and review</t>
   </si>
   <si>
@@ -829,6 +825,60 @@
   </si>
   <si>
     <t xml:space="preserve">       4.6.3 Report 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.1 Create report 5 (Test case)</t>
+  </si>
+  <si>
+    <t>Fri 11/30/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.2 Update report 4 (ver 0.2)</t>
+  </si>
+  <si>
+    <t>Wed 11/28/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.3 Prepare document for closing project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.3.1 Update report 5 (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.3.3 Create final report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.3.4 Create User Manual Document </t>
+  </si>
+  <si>
+    <t>Sun 12/2/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.4 Summit and review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.4.1 Report 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.4.2 Report 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.4.3 Final report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.4.4 User manual</t>
+  </si>
+  <si>
+    <t>6. Closing</t>
+  </si>
+  <si>
+    <t>24 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6.1 Update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5.3.2 Update report 3 (final)</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1246,6 +1296,9 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,7 +4746,7 @@
     </row>
     <row r="167" spans="1:35" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B167" s="34" t="s">
         <v>77</v>
@@ -4740,7 +4793,7 @@
     </row>
     <row r="168" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B168" s="54" t="s">
         <v>77</v>
@@ -4760,7 +4813,7 @@
     </row>
     <row r="169" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B169" s="54" t="s">
         <v>77</v>
@@ -4780,7 +4833,7 @@
     </row>
     <row r="170" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B170" s="54" t="s">
         <v>77</v>
@@ -4817,139 +4870,294 @@
       <c r="H171" s="61"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
+      <c r="A172" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>267</v>
+      </c>
       <c r="E172" s="32"/>
-      <c r="F172" s="31"/>
+      <c r="F172" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="G172" s="32"/>
       <c r="H172" s="59"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="59"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+      <c r="A173" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>269</v>
+      </c>
       <c r="E173" s="32"/>
-      <c r="F173" s="31"/>
+      <c r="F173" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="G173" s="32"/>
       <c r="H173" s="59"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="59"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
+      <c r="A174" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="D174" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="E174" s="32"/>
-      <c r="F174" s="31"/>
+      <c r="F174" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="G174" s="32"/>
       <c r="H174" s="59"/>
     </row>
     <row r="175" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="59"/>
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
+      <c r="A175" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" s="65" t="s">
+        <v>274</v>
+      </c>
       <c r="E175" s="32"/>
-      <c r="F175" s="31"/>
+      <c r="F175" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="G175" s="32"/>
       <c r="H175" s="59"/>
     </row>
     <row r="176" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="59"/>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
+      <c r="A176" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="E176" s="32"/>
-      <c r="F176" s="31"/>
+      <c r="F176" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="G176" s="32"/>
       <c r="H176" s="59"/>
     </row>
-    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="59"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
+    <row r="177" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D177" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="E177" s="32"/>
-      <c r="F177" s="31"/>
+      <c r="F177" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="G177" s="32"/>
       <c r="H177" s="59"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="59"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
+    <row r="178" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D178" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="E178" s="32"/>
-      <c r="F178" s="31"/>
+      <c r="F178" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="G178" s="32"/>
       <c r="H178" s="59"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="59"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="59"/>
-    </row>
-    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="59"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="31"/>
+    <row r="179" spans="1:35" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34"/>
+      <c r="J179" s="34"/>
+      <c r="K179" s="34"/>
+      <c r="L179" s="34"/>
+      <c r="M179" s="34"/>
+      <c r="N179" s="34"/>
+      <c r="O179" s="34"/>
+      <c r="P179" s="34"/>
+      <c r="Q179" s="34"/>
+      <c r="R179" s="34"/>
+      <c r="S179" s="34"/>
+      <c r="T179" s="34"/>
+      <c r="U179" s="34"/>
+      <c r="V179" s="34"/>
+      <c r="W179" s="34"/>
+      <c r="X179" s="34"/>
+      <c r="Y179" s="34"/>
+      <c r="Z179" s="34"/>
+      <c r="AA179" s="34"/>
+      <c r="AB179" s="34"/>
+      <c r="AC179" s="34"/>
+      <c r="AD179" s="34"/>
+      <c r="AE179" s="34"/>
+      <c r="AF179" s="34"/>
+      <c r="AG179" s="34"/>
+      <c r="AH179" s="34"/>
+      <c r="AI179" s="34"/>
+    </row>
+    <row r="180" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B180" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D180" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G180" s="32"/>
       <c r="H180" s="59"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="59"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="31"/>
+    <row r="181" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C181" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G181" s="32"/>
       <c r="H181" s="59"/>
     </row>
-    <row r="182" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="59"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="31"/>
+    <row r="182" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B182" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C182" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D182" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E182" s="54"/>
+      <c r="F182" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G182" s="32"/>
       <c r="H182" s="59"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="59"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="31"/>
+    <row r="183" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B183" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D183" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G183" s="32"/>
       <c r="H183" s="59"/>
     </row>
-    <row r="184" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="59"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="59"/>
-    </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="59"/>
+    <row r="184" spans="1:35" s="56" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B184" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C184" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D184" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="60"/>
+      <c r="F184" s="60"/>
+      <c r="G184" s="61"/>
+      <c r="H184" s="61"/>
+    </row>
+    <row r="185" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="59" t="s">
+        <v>282</v>
+      </c>
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
@@ -4958,7 +5166,7 @@
       <c r="G185" s="32"/>
       <c r="H185" s="59"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="59"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
@@ -4968,7 +5176,7 @@
       <c r="G186" s="32"/>
       <c r="H186" s="59"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="59"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
@@ -4978,7 +5186,7 @@
       <c r="G187" s="32"/>
       <c r="H187" s="59"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="59"/>
       <c r="B188" s="31"/>
       <c r="C188" s="31"/>
@@ -4988,7 +5196,7 @@
       <c r="G188" s="32"/>
       <c r="H188" s="59"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="59"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
@@ -4998,7 +5206,7 @@
       <c r="G189" s="32"/>
       <c r="H189" s="59"/>
     </row>
-    <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="59"/>
       <c r="B190" s="31"/>
       <c r="C190" s="31"/>
@@ -5008,7 +5216,7 @@
       <c r="G190" s="32"/>
       <c r="H190" s="59"/>
     </row>
-    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="59"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
@@ -5018,7 +5226,7 @@
       <c r="G191" s="32"/>
       <c r="H191" s="59"/>
     </row>
-    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="59"/>
       <c r="B192" s="31"/>
       <c r="C192" s="31"/>
